--- a/medicine/Sexualité et sexologie/Roland_Gagey/Roland_Gagey.xlsx
+++ b/medicine/Sexualité et sexologie/Roland_Gagey/Roland_Gagey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland Gagey, né en 1900 et mort en 1976, est un médecin, auteur libre-penseur et anticlérical, libraire et éditeur français. Il a également publié sous le pseudonyme C. Louis Vignon.
 Victime de la censure, Roland Gagey est largement oublié aujourd'hui, même si les travaux de Bernard Joubert l'ont quelque peu remis en lumière.
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste non exhaustive.
 Mon combat (Mein Kampf), extraits, avant-propos de Charles-Louis Vignon, Éditions du savoir mutuel, 1935, 126 p.
